--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Software\Internet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E59204-022F-4118-B5E1-B572B6139EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71BCF7-56EB-4442-B924-F8502B1C5694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="45" windowWidth="14235" windowHeight="15495" xr2:uid="{99C9475A-A650-4202-9CB5-A17CEAE4A614}"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="14235" windowHeight="15495" xr2:uid="{99C9475A-A650-4202-9CB5-A17CEAE4A614}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -93,6 +93,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="S5" authorId="1" shapeId="0" xr:uid="{EEC44470-9EED-43F2-AF29-94AAA461D82D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+$159.0 billion and $164.0 billion</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{24DD0FC1-5F54-4225-AE60-5B9E3E5A93E8}">
       <text>
         <r>
@@ -168,12 +193,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{5CB5143C-2E2E-46DD-B584-3DC97E1AD075}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+$13.0 billion and $17.5 billion</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>Revenue</t>
   </si>
@@ -388,9 +438,6 @@
     <t>TTM NI</t>
   </si>
   <si>
-    <t>Tangible bookvalue</t>
-  </si>
-  <si>
     <t>NOPAT</t>
   </si>
   <si>
@@ -446,6 +493,33 @@
   </si>
   <si>
     <t>EV/FCF</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Obligations</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
   </si>
 </sst>
 </file>
@@ -456,11 +530,17 @@
     <numFmt numFmtId="164" formatCode="0\x"/>
     <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -519,6 +599,19 @@
       <name val="arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -540,45 +633,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,16 +698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -624,8 +722,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12525375" y="19050"/>
-          <a:ext cx="0" cy="12325350"/>
+          <a:off x="13230225" y="0"/>
+          <a:ext cx="0" cy="12287250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -658,8 +756,8 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -675,7 +773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="25050750" y="9525"/>
-          <a:ext cx="0" cy="14458950"/>
+          <a:ext cx="0" cy="14373225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1021,7 +1119,7 @@
   <dimension ref="C3:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1134,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="14">
-        <v>171</v>
+        <v>192.6</v>
       </c>
       <c r="M3" s="11"/>
     </row>
@@ -1046,11 +1144,11 @@
         <v>10</v>
       </c>
       <c r="L4" s="2">
-        <f>+Model!Q20</f>
-        <v>10771</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>31</v>
+        <f>+Model!R20</f>
+        <v>10793</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
@@ -1061,7 +1159,7 @@
       </c>
       <c r="L5" s="2">
         <f>+L3*L4</f>
-        <v>1841841</v>
+        <v>2078731.8</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -1072,11 +1170,11 @@
         <v>34</v>
       </c>
       <c r="L6" s="2">
-        <f>+Model!Q31</f>
-        <v>101202</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>31</v>
+        <f>+Model!R31</f>
+        <v>94565</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
@@ -1086,11 +1184,11 @@
         <v>35</v>
       </c>
       <c r="L7" s="2">
-        <f>+Model!Q43</f>
-        <v>52623</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>31</v>
+        <f>+Model!R43</f>
+        <v>53374</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
@@ -1099,30 +1197,27 @@
       </c>
       <c r="L8" s="2">
         <f>+L5-L6+L7</f>
-        <v>1793262</v>
+        <v>2037540.8</v>
       </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="K9" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="2">
-        <f>+SUM(Model!N18:Q18)</f>
-        <v>62365</v>
+        <v>63630</v>
       </c>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="L10" s="13">
         <f>+L8/L9</f>
-        <v>28.754301290788103</v>
+        <v>32.021700455759863</v>
       </c>
       <c r="M10" s="11"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="K12" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="3">
         <v>1994</v>
@@ -1130,10 +1225,10 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="K13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1143,13 +1238,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99153FDB-6915-4B8A-9BD5-0082C8AE78A7}">
-  <dimension ref="A1:EP77"/>
+  <dimension ref="A1:EP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR38" sqref="AR38"/>
+      <selection pane="bottomRight" activeCell="AH99" sqref="AH99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,6 +1304,9 @@
       <c r="Q1" s="17">
         <v>45657</v>
       </c>
+      <c r="R1" s="17">
+        <v>45747</v>
+      </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1261,16 +1359,16 @@
         <v>31</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1411,6 +1509,9 @@
       <c r="Q3" s="2">
         <v>82226</v>
       </c>
+      <c r="R3" s="2">
+        <v>63970</v>
+      </c>
       <c r="Y3" s="2">
         <v>70080</v>
       </c>
@@ -1499,8 +1600,11 @@
       <c r="Q4" s="2">
         <v>105566</v>
       </c>
+      <c r="R4" s="2">
+        <v>91697</v>
+      </c>
       <c r="W4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="2">
         <v>18908</v>
@@ -1606,7 +1710,11 @@
         <v>187792</v>
       </c>
       <c r="R5" s="5">
-        <v>155500</v>
+        <f>+SUM(R3:R4)</f>
+        <v>155667</v>
+      </c>
+      <c r="S5" s="5">
+        <v>164000</v>
       </c>
       <c r="W5" s="6">
         <f>+(AH5/Y5)^(0.1)-1</f>
@@ -1750,6 +1858,9 @@
       <c r="Q6" s="2">
         <v>98893</v>
       </c>
+      <c r="R6" s="2">
+        <v>76976</v>
+      </c>
       <c r="W6" s="6">
         <f>+(AH6/Y6)^(0.1)-1</f>
         <v>0.17119725708641731</v>
@@ -1862,7 +1973,7 @@
         <v>56833</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:Q7" si="7">+I5-I6</f>
+        <f t="shared" ref="I7:R7" si="7">+I5-I6</f>
         <v>63564</v>
       </c>
       <c r="J7" s="2">
@@ -1896,6 +2007,10 @@
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
         <v>88899</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="7"/>
+        <v>78691</v>
       </c>
       <c r="W7" s="6"/>
       <c r="Y7" s="2">
@@ -2036,6 +2151,9 @@
       <c r="Q8" s="2">
         <v>27962</v>
       </c>
+      <c r="R8" s="2">
+        <v>24593</v>
+      </c>
       <c r="W8" s="6">
         <f t="shared" ref="W8:W11" si="10">+(AH8/Y8)^(0.1)-1</f>
         <v>0.23741817046151081</v>
@@ -2168,6 +2286,9 @@
       <c r="Q9" s="2">
         <v>23571</v>
       </c>
+      <c r="R9" s="2">
+        <v>22994</v>
+      </c>
       <c r="W9" s="6">
         <f t="shared" si="10"/>
         <v>0.24889850283328085</v>
@@ -2300,6 +2421,9 @@
       <c r="Q10" s="2">
         <v>13124</v>
       </c>
+      <c r="R10" s="2">
+        <v>9763</v>
+      </c>
       <c r="W10" s="6">
         <f t="shared" si="10"/>
         <v>0.26194404353738454</v>
@@ -2432,6 +2556,9 @@
       <c r="Q11" s="2">
         <v>2863</v>
       </c>
+      <c r="R11" s="2">
+        <v>2628</v>
+      </c>
       <c r="W11" s="6">
         <f t="shared" si="10"/>
         <v>0.22506145777049524</v>
@@ -2579,48 +2706,52 @@
         <f t="shared" si="16"/>
         <v>67520</v>
       </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12" si="17">+SUM(R8:R11)</f>
+        <v>59978</v>
+      </c>
       <c r="W12" s="6">
         <f>+(AH12/Y12)^(0.1)-1</f>
         <v>0.24525066165169318</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12:AH12" si="17">+SUM(Y8:Y11)</f>
+        <f t="shared" ref="Y12:AH12" si="18">+SUM(Y8:Y11)</f>
         <v>25925</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32951</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43369</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61612</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>81014</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>100244</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>129933</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>172537</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>211641</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>232427</v>
       </c>
       <c r="AI12" s="2">
@@ -2632,39 +2763,39 @@
         <v>264572.34999999998</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" ref="AK12:AS12" si="18">+SUM(AK8:AK11)</f>
+        <f t="shared" ref="AK12:AS12" si="19">+SUM(AK8:AK11)</f>
         <v>288994.15910000011</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>315798.37435300008</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>345229.53885827016</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>377558.40035319864</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>413084.81570522545</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>452140.98548888991</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>495095.05683261179</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>542355.13719136268</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>594373.76670090423</v>
       </c>
     </row>
@@ -2673,63 +2804,63 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:P13" si="19">+B7-B12</f>
+        <f t="shared" ref="B13:P13" si="20">+B7-B12</f>
         <v>7713</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7713</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4841</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4644</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3918</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3407</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2690</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3496</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4997</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7827</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11432</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13363</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15538</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14769</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17673</v>
       </c>
       <c r="Q13" s="2">
@@ -2737,90 +2868,94 @@
         <v>21379</v>
       </c>
       <c r="R13" s="2">
-        <v>18000</v>
+        <f>+R7-R12</f>
+        <v>18713</v>
+      </c>
+      <c r="S13" s="2">
+        <v>17500</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13:AI13" si="20">+Y7-Y12</f>
+        <f t="shared" ref="Y13:AI13" si="21">+Y7-Y12</f>
         <v>311</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2404</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4253</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4320</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12717</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14742</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22824</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24911</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13511</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>37619</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>69359</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" ref="AJ13:AS13" si="21">+AJ7-AJ12</f>
+        <f t="shared" ref="AJ13:AS13" si="22">+AJ7-AJ12</f>
         <v>81528.63</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>95273.458099999931</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110772.63229500002</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>128224.09267804993</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>147846.41574039031</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>169880.82732768648</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>194593.39825697412</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>222277.43757436902</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>253256.09944863443</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>287885.22074671939</v>
       </c>
     </row>
@@ -2877,6 +3012,9 @@
       <c r="Q14" s="2">
         <v>1248</v>
       </c>
+      <c r="R14" s="2">
+        <v>1066</v>
+      </c>
       <c r="Y14" s="2">
         <v>39</v>
       </c>
@@ -2908,47 +3046,47 @@
         <v>2949</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AI17" si="22">+SUM(N14:Q14)</f>
+        <f t="shared" ref="AI14:AI17" si="23">+SUM(N14:Q14)</f>
         <v>4677</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" ref="AJ14:AS14" si="23">+AI30*0.05</f>
+        <f t="shared" ref="AJ14:AS14" si="24">+AI30*0.05</f>
         <v>2428.9500000000003</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5686.2012000000004</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9618.482971999998</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14322.717752680001</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19907.6098484092</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26494.94153438618</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>34221.001484415341</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43238.158129394484</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>53716.591645634762</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>65846.199461899756</v>
       </c>
     </row>
@@ -3005,6 +3143,9 @@
       <c r="Q15" s="2">
         <v>-570</v>
       </c>
+      <c r="R15" s="2">
+        <v>-541</v>
+      </c>
       <c r="Y15" s="2">
         <v>-210</v>
       </c>
@@ -3036,47 +3177,47 @@
         <v>-3182</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2406</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" ref="AJ15:AS15" si="24">+AI15*1.05</f>
+        <f t="shared" ref="AJ15:AS15" si="25">+AI15*1.05</f>
         <v>-2526.3000000000002</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2652.6150000000002</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2785.2457500000005</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2924.5080375000007</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3070.7334393750007</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3224.2701113437506</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3385.4836169109385</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3554.7577977564856</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3732.4956876443102</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3919.1204720265259</v>
       </c>
     </row>
@@ -3085,151 +3226,155 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" ref="B16:Q16" si="25">+B13+B14+B15</f>
+        <f t="shared" ref="B16:Q16" si="26">+B13+B14+B15</f>
         <v>7384</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7384</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4467</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4315</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3554</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2982</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2350</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3247</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4785</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7648</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11402</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13551</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15887</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15360</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18326</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22057</v>
       </c>
+      <c r="R16" s="2">
+        <f t="shared" ref="R16" si="27">+R13+R14+R15</f>
+        <v>19238</v>
+      </c>
       <c r="Y16" s="2">
-        <f t="shared" ref="Y16:AS16" si="26">+Y13+Y14+Y15</f>
+        <f t="shared" ref="Y16:AS16" si="28">+Y13+Y14+Y15</f>
         <v>140</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1995</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3869</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3674</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>11740</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13974</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>21732</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23550</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>12133</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>37386</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>71630</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>81431.28</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98307.044299999921</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>117605.86951700001</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>139622.30239322994</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>164683.29214942449</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>193151.4987507289</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>225428.91612447854</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>261960.83790600699</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>303240.19540662487</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>349812.29973659263</v>
       </c>
     </row>
@@ -3286,6 +3431,9 @@
       <c r="Q17" s="2">
         <v>2325</v>
       </c>
+      <c r="R17" s="2">
+        <v>4553</v>
+      </c>
       <c r="Y17" s="2">
         <v>167</v>
       </c>
@@ -3317,47 +3465,47 @@
         <v>7120</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9265</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" ref="AJ17:AS17" si="27">+AJ16*0.2</f>
+        <f t="shared" ref="AJ17:AS17" si="29">+AJ16*0.2</f>
         <v>16286.256000000001</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>19661.408859999985</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>23521.173903400006</v>
       </c>
       <c r="AM17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>27924.460478645989</v>
       </c>
       <c r="AN17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>32936.658429884897</v>
       </c>
       <c r="AO17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>38630.299750145779</v>
       </c>
       <c r="AP17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>45085.783224895713</v>
       </c>
       <c r="AQ17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>52392.1675812014</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>60648.039081324976</v>
       </c>
       <c r="AS17" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>69962.459947318523</v>
       </c>
     </row>
@@ -3366,555 +3514,559 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:H18" si="28">+B16-B17</f>
+        <f t="shared" ref="B18:H18" si="30">+B16-B17</f>
         <v>6516</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6516</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3312</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2415</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4976</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3619</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2281</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" ref="I18:Q18" si="29">+I16-I17</f>
+        <f t="shared" ref="I18:Q18" si="31">+I16-I17</f>
         <v>4474</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3837</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8452</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9096</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10489</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>13420</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>13593</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>15620</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>19732</v>
       </c>
+      <c r="R18" s="2">
+        <f t="shared" ref="R18" si="32">+R16-R17</f>
+        <v>14685</v>
+      </c>
       <c r="Y18" s="2">
-        <f t="shared" ref="Y18:AH18" si="30">+Y16-Y17</f>
+        <f t="shared" ref="Y18:AH18" si="33">+Y16-Y17</f>
         <v>-27</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1045</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2444</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2905</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>10543</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11600</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>18869</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>18759</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>15350</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>30266</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" ref="AI18:AS18" si="31">+AI16-AI17</f>
+        <f t="shared" ref="AI18:AS18" si="34">+AI16-AI17</f>
         <v>62365</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>65145.023999999998</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>78645.63543999994</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>94084.695613600008</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>111697.84191458396</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>131746.63371953959</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>154521.19900058312</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>180343.13289958282</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>209568.6703248056</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>242592.1563252999</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>279849.83978927409</v>
       </c>
       <c r="AT18" s="2">
-        <f>+AS18*(1+$AV$23)</f>
+        <f t="shared" ref="AT18:BY18" si="35">+AS18*(1+$AV$23)</f>
         <v>282648.33818716684</v>
       </c>
       <c r="AU18" s="2">
-        <f>+AT18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>285474.8215690385</v>
       </c>
       <c r="AV18" s="2">
-        <f>+AU18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>288329.56978472887</v>
       </c>
       <c r="AW18" s="2">
-        <f>+AV18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>291212.86548257613</v>
       </c>
       <c r="AX18" s="2">
-        <f>+AW18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>294124.99413740193</v>
       </c>
       <c r="AY18" s="2">
-        <f>+AX18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>297066.24407877593</v>
       </c>
       <c r="AZ18" s="2">
-        <f>+AY18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>300036.90651956369</v>
       </c>
       <c r="BA18" s="2">
-        <f>+AZ18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>303037.27558475931</v>
       </c>
       <c r="BB18" s="2">
-        <f>+BA18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>306067.64834060689</v>
       </c>
       <c r="BC18" s="2">
-        <f>+BB18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>309128.32482401293</v>
       </c>
       <c r="BD18" s="2">
-        <f>+BC18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>312219.60807225306</v>
       </c>
       <c r="BE18" s="2">
-        <f>+BD18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>315341.80415297562</v>
       </c>
       <c r="BF18" s="2">
-        <f>+BE18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>318495.22219450539</v>
       </c>
       <c r="BG18" s="2">
-        <f>+BF18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>321680.17441645043</v>
       </c>
       <c r="BH18" s="2">
-        <f>+BG18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>324896.97616061493</v>
       </c>
       <c r="BI18" s="2">
-        <f>+BH18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>328145.94592222106</v>
       </c>
       <c r="BJ18" s="2">
-        <f>+BI18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>331427.40538144327</v>
       </c>
       <c r="BK18" s="2">
-        <f>+BJ18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>334741.67943525768</v>
       </c>
       <c r="BL18" s="2">
-        <f>+BK18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>338089.09622961027</v>
       </c>
       <c r="BM18" s="2">
-        <f>+BL18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>341469.98719190637</v>
       </c>
       <c r="BN18" s="2">
-        <f>+BM18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>344884.68706382543</v>
       </c>
       <c r="BO18" s="2">
-        <f>+BN18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>348333.53393446369</v>
       </c>
       <c r="BP18" s="2">
-        <f>+BO18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>351816.86927380832</v>
       </c>
       <c r="BQ18" s="2">
-        <f>+BP18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>355335.03796654643</v>
       </c>
       <c r="BR18" s="2">
-        <f>+BQ18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>358888.38834621187</v>
       </c>
       <c r="BS18" s="2">
-        <f>+BR18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>362477.27222967398</v>
       </c>
       <c r="BT18" s="2">
-        <f>+BS18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>366102.04495197075</v>
       </c>
       <c r="BU18" s="2">
-        <f>+BT18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>369763.06540149049</v>
       </c>
       <c r="BV18" s="2">
-        <f>+BU18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>373460.69605550537</v>
       </c>
       <c r="BW18" s="2">
-        <f>+BV18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>377195.30301606044</v>
       </c>
       <c r="BX18" s="2">
-        <f>+BW18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>380967.25604622107</v>
       </c>
       <c r="BY18" s="2">
-        <f>+BX18*(1+$AV$23)</f>
+        <f t="shared" si="35"/>
         <v>384776.92860668327</v>
       </c>
       <c r="BZ18" s="2">
-        <f>+BY18*(1+$AV$23)</f>
+        <f t="shared" ref="BZ18:DE18" si="36">+BY18*(1+$AV$23)</f>
         <v>388624.69789275009</v>
       </c>
       <c r="CA18" s="2">
-        <f>+BZ18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>392510.94487167761</v>
       </c>
       <c r="CB18" s="2">
-        <f>+CA18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>396436.05432039441</v>
       </c>
       <c r="CC18" s="2">
-        <f>+CB18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>400400.41486359836</v>
       </c>
       <c r="CD18" s="2">
-        <f>+CC18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>404404.41901223437</v>
       </c>
       <c r="CE18" s="2">
-        <f>+CD18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>408448.46320235671</v>
       </c>
       <c r="CF18" s="2">
-        <f>+CE18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>412532.94783438026</v>
       </c>
       <c r="CG18" s="2">
-        <f>+CF18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>416658.27731272409</v>
       </c>
       <c r="CH18" s="2">
-        <f>+CG18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>420824.86008585134</v>
       </c>
       <c r="CI18" s="2">
-        <f>+CH18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>425033.10868670983</v>
       </c>
       <c r="CJ18" s="2">
-        <f>+CI18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>429283.43977357692</v>
       </c>
       <c r="CK18" s="2">
-        <f>+CJ18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>433576.27417131269</v>
       </c>
       <c r="CL18" s="2">
-        <f>+CK18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>437912.03691302583</v>
       </c>
       <c r="CM18" s="2">
-        <f>+CL18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>442291.15728215611</v>
       </c>
       <c r="CN18" s="2">
-        <f>+CM18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>446714.06885497767</v>
       </c>
       <c r="CO18" s="2">
-        <f>+CN18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>451181.20954352745</v>
       </c>
       <c r="CP18" s="2">
-        <f>+CO18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>455693.02163896273</v>
       </c>
       <c r="CQ18" s="2">
-        <f>+CP18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>460249.95185535238</v>
       </c>
       <c r="CR18" s="2">
-        <f>+CQ18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>464852.45137390593</v>
       </c>
       <c r="CS18" s="2">
-        <f>+CR18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>469500.97588764498</v>
       </c>
       <c r="CT18" s="2">
-        <f>+CS18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>474195.98564652144</v>
       </c>
       <c r="CU18" s="2">
-        <f>+CT18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>478937.94550298667</v>
       </c>
       <c r="CV18" s="2">
-        <f>+CU18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>483727.32495801651</v>
       </c>
       <c r="CW18" s="2">
-        <f>+CV18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>488564.59820759669</v>
       </c>
       <c r="CX18" s="2">
-        <f>+CW18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>493450.24418967264</v>
       </c>
       <c r="CY18" s="2">
-        <f>+CX18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>498384.74663156935</v>
       </c>
       <c r="CZ18" s="2">
-        <f>+CY18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>503368.59409788507</v>
       </c>
       <c r="DA18" s="2">
-        <f>+CZ18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>508402.28003886394</v>
       </c>
       <c r="DB18" s="2">
-        <f>+DA18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>513486.30283925257</v>
       </c>
       <c r="DC18" s="2">
-        <f>+DB18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>518621.16586764512</v>
       </c>
       <c r="DD18" s="2">
-        <f>+DC18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>523807.37752632156</v>
       </c>
       <c r="DE18" s="2">
-        <f>+DD18*(1+$AV$23)</f>
+        <f t="shared" si="36"/>
         <v>529045.45130158484</v>
       </c>
       <c r="DF18" s="2">
-        <f>+DE18*(1+$AV$23)</f>
+        <f t="shared" ref="DF18:EP18" si="37">+DE18*(1+$AV$23)</f>
         <v>534335.90581460064</v>
       </c>
       <c r="DG18" s="2">
-        <f>+DF18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>539679.26487274666</v>
       </c>
       <c r="DH18" s="2">
-        <f>+DG18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>545076.05752147408</v>
       </c>
       <c r="DI18" s="2">
-        <f>+DH18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>550526.81809668883</v>
       </c>
       <c r="DJ18" s="2">
-        <f>+DI18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>556032.08627765568</v>
       </c>
       <c r="DK18" s="2">
-        <f>+DJ18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>561592.40714043227</v>
       </c>
       <c r="DL18" s="2">
-        <f>+DK18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>567208.33121183666</v>
       </c>
       <c r="DM18" s="2">
-        <f>+DL18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>572880.41452395509</v>
       </c>
       <c r="DN18" s="2">
-        <f>+DM18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>578609.21866919461</v>
       </c>
       <c r="DO18" s="2">
-        <f>+DN18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>584395.31085588655</v>
       </c>
       <c r="DP18" s="2">
-        <f>+DO18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>590239.26396444545</v>
       </c>
       <c r="DQ18" s="2">
-        <f>+DP18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>596141.65660408989</v>
       </c>
       <c r="DR18" s="2">
-        <f>+DQ18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>602103.07317013084</v>
       </c>
       <c r="DS18" s="2">
-        <f>+DR18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>608124.10390183213</v>
       </c>
       <c r="DT18" s="2">
-        <f>+DS18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>614205.34494085051</v>
       </c>
       <c r="DU18" s="2">
-        <f>+DT18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>620347.39839025901</v>
       </c>
       <c r="DV18" s="2">
-        <f>+DU18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>626550.87237416161</v>
       </c>
       <c r="DW18" s="2">
-        <f>+DV18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>632816.38109790324</v>
       </c>
       <c r="DX18" s="2">
-        <f>+DW18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>639144.54490888224</v>
       </c>
       <c r="DY18" s="2">
-        <f>+DX18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>645535.99035797105</v>
       </c>
       <c r="DZ18" s="2">
-        <f>+DY18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>651991.35026155075</v>
       </c>
       <c r="EA18" s="2">
-        <f>+DZ18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>658511.26376416627</v>
       </c>
       <c r="EB18" s="2">
-        <f>+EA18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>665096.376401808</v>
       </c>
       <c r="EC18" s="2">
-        <f>+EB18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>671747.34016582603</v>
       </c>
       <c r="ED18" s="2">
-        <f>+EC18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>678464.81356748426</v>
       </c>
       <c r="EE18" s="2">
-        <f>+ED18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>685249.46170315915</v>
       </c>
       <c r="EF18" s="2">
-        <f>+EE18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>692101.9563201908</v>
       </c>
       <c r="EG18" s="2">
-        <f>+EF18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>699022.97588339273</v>
       </c>
       <c r="EH18" s="2">
-        <f>+EG18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>706013.20564222662</v>
       </c>
       <c r="EI18" s="2">
-        <f>+EH18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>713073.33769864892</v>
       </c>
       <c r="EJ18" s="2">
-        <f>+EI18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>720204.07107563538</v>
       </c>
       <c r="EK18" s="2">
-        <f>+EJ18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>727406.1117863917</v>
       </c>
       <c r="EL18" s="2">
-        <f>+EK18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>734680.17290425568</v>
       </c>
       <c r="EM18" s="2">
-        <f>+EL18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>742026.97463329823</v>
       </c>
       <c r="EN18" s="2">
-        <f>+EM18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>749447.24437963124</v>
       </c>
       <c r="EO18" s="2">
-        <f>+EN18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>756941.71682342759</v>
       </c>
       <c r="EP18" s="2">
-        <f>+EO18*(1+$AV$23)</f>
+        <f t="shared" si="37"/>
         <v>764511.13399166183</v>
       </c>
     </row>
@@ -3923,111 +4075,115 @@
         <v>9</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:H19" si="32">+B18/B20</f>
+        <f t="shared" ref="B19:H19" si="38">+B18/B20</f>
         <v>0.6334824032665759</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.6334824032665759</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.3212726743622078</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.23461027816456723</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.48923409694228687</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.35567567567567565</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.22079179169489885</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" ref="I19:Q19" si="33">+I18/I20</f>
+        <f t="shared" ref="I19:Q19" si="39">+I18/I20</f>
         <v>0.43403181994567325</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.37083212525369674</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.80888123265384249</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.86152680431899986</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.98859566446748348</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.2577319587628866</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.2694247291744489</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.4550535631113182</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.8319561786277969</v>
       </c>
+      <c r="R19" s="7">
+        <f t="shared" ref="R19" si="40">+R18/R20</f>
+        <v>1.3606040952469194</v>
+      </c>
       <c r="Y19" s="7">
-        <f t="shared" ref="Y19:AI19" si="34">+Y18/Y20</f>
+        <f t="shared" ref="Y19:AI19" si="41">+Y18/Y20</f>
         <v>-5.844155844155844E-2</v>
       </c>
       <c r="Z19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.190775681341719</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.0495867768595044</v>
       </c>
       <c r="AB19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.8924949290060855</v>
       </c>
       <c r="AC19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>21.085999999999999</v>
       </c>
       <c r="AD19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>23.015873015873016</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>36.998039215686276</v>
       </c>
       <c r="AF19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1.821969696969697</v>
       </c>
       <c r="AG19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1.5065266463833547</v>
       </c>
       <c r="AH19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.8846740373617994</v>
       </c>
       <c r="AI19" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.817087958212853</v>
       </c>
     </row>
@@ -4084,6 +4240,9 @@
       <c r="Q20" s="2">
         <v>10771</v>
       </c>
+      <c r="R20" s="2">
+        <v>10793</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="Y20" s="2">
         <v>462</v>
@@ -4125,155 +4284,159 @@
         <v>11</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:Q22" si="35">+B7/B5</f>
+        <f t="shared" ref="B22:R22" si="42">+B7/B5</f>
         <v>0.43247258577997877</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.43247258577997877</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.43210121647475003</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.38968528836018673</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.42891862182680085</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.4521008957883102</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.44714833085498934</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.42602075011393797</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.46771306082067871</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.48376654785203488</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.47567495789157344</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.45544566106342044</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.49318624269954575</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.50137521371564497</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.49031640829069029</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.47339077276987307</v>
       </c>
+      <c r="R22" s="8">
+        <f t="shared" si="42"/>
+        <v>0.50550855351487467</v>
+      </c>
       <c r="Y22" s="8">
-        <f t="shared" ref="Y22:AS22" si="36">+Y7/Y5</f>
+        <f t="shared" ref="Y22:AS22" si="43">+Y7/Y5</f>
         <v>0.29482626871038792</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.33040203353083003</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.35019523925081075</v>
       </c>
       <c r="AB22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.3706835482891615</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.40247416128852193</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.40990011478600608</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.3956779186870571</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.42028812751174988</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.43805339865326287</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.46982088955000567</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.48854393464156787</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.49319353523573539</v>
       </c>
       <c r="AK22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.49780086673359236</v>
       </c>
       <c r="AL22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.50236631339965065</v>
       </c>
       <c r="AM22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.50689025600510829</v>
       </c>
       <c r="AN22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.51137307185960734</v>
       </c>
       <c r="AO22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.51581513484270181</v>
       </c>
       <c r="AP22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.52021681543504084</v>
       </c>
       <c r="AQ22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.52457848074926772</v>
       </c>
       <c r="AR22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.52890049456063803</v>
       </c>
       <c r="AS22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.53318321733735952</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV22" s="8">
         <v>0.05</v>
@@ -4284,159 +4447,159 @@
         <v>12</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:Q23" si="37">+B13/B5</f>
+        <f t="shared" ref="B23:Q23" si="44">+B13/B5</f>
         <v>6.8208348072161307E-2</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>6.8208348072161307E-2</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>4.3686604338880268E-2</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3.4964613762987505E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3.3647074988835839E-2</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2.8102677466717258E-2</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2.1164270934138991E-2</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2.3431007211602906E-2</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3.9235854834403804E-2</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>5.8243974312226991E-2</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>7.9897681765129333E-2</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>7.8623919605085871E-2</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0.10842003167891259</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>9.9806050940348834E-2</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0.11123699465624351</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0.11384404021470564</v>
       </c>
       <c r="R23" s="8">
         <f>+R13/R5</f>
-        <v>0.1157556270096463</v>
+        <v>0.12021173402198282</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" ref="Y23:AS23" si="38">+Y13/Y5</f>
+        <f t="shared" ref="Y23:AS23" si="45">+Y13/Y5</f>
         <v>3.4948532386389177E-3</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>2.2466029942246231E-2</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>3.1275048350209944E-2</v>
       </c>
       <c r="AB23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>2.4287947106248525E-2</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>5.460588182251478E-2</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>5.2552028004933658E-2</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>5.9119731443491232E-2</v>
       </c>
       <c r="AF23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>5.3025594305565013E-2</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>2.6286861627719205E-2</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>6.5448819993562807E-2</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.10872015286248803</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.11617821264945924</v>
       </c>
       <c r="AK23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.12342234394995112</v>
       </c>
       <c r="AL23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.13045527718562103</v>
       </c>
       <c r="AM23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.13727963803486731</v>
       </c>
       <c r="AN23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.14389794966616509</v>
       </c>
       <c r="AO23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.15031263489102953</v>
       </c>
       <c r="AP23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.15652601823889511</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.16254032795610909</v>
       </c>
       <c r="AR23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.16835769793116953</v>
       </c>
       <c r="AS23" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.17398016954825779</v>
       </c>
       <c r="AU23" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV23" s="8">
         <v>0.01</v>
@@ -4447,155 +4610,159 @@
         <v>13</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:Q24" si="39">+B18/B5</f>
+        <f t="shared" ref="B24:Q24" si="46">+B18/B5</f>
         <v>5.7622921825256454E-2</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>5.7622921825256454E-2</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>2.9888459733602858E-2</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>1.8182502635145311E-2</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4.2732987530486759E-2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>2.9851361829189831E-2</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>1.7946357621104476E-2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>2.9985791265649715E-2</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>3.012767160288321E-2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>6.2894860212973372E-2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>6.357149346882579E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>6.171415795388354E-2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>9.3641190959647763E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>9.1858869959520736E-2</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>9.8315048748402856E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>0.10507369856010906</v>
       </c>
+      <c r="R24" s="8">
+        <f t="shared" ref="R24" si="47">+R18/R5</f>
+        <v>9.4335986432577235E-2</v>
+      </c>
       <c r="Y24" s="8">
-        <f t="shared" ref="Y24:AH24" si="40">+Y18/Y5</f>
+        <f t="shared" ref="Y24:AH24" si="48">+Y18/Y5</f>
         <v>-3.0341169595900572E-4</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>9.765807524811692E-3</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.7972306176325677E-2</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.6332519986956472E-2</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>4.5270882445134338E-2</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>4.1351480454295916E-2</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>4.8875316009780762E-2</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>3.9930437299911449E-2</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.9864800975907765E-2</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>5.2656210583087587E-2</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" ref="AI24" si="41">+AI18/AI5</f>
+        <f t="shared" ref="AI24" si="49">+AI18/AI5</f>
         <v>9.7757065892949233E-2</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" ref="AJ24:AS24" si="42">+AJ18/AJ5</f>
+        <f t="shared" ref="AJ24:AS24" si="50">+AJ18/AJ5</f>
         <v>9.2831591200859445E-2</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.10188177128251154</v>
       </c>
       <c r="AL24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.11080214301047155</v>
       </c>
       <c r="AM24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.11958625705241464</v>
       </c>
       <c r="AN24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.1282281371024257</v>
       </c>
       <c r="AO24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.13672224778783737</v>
       </c>
       <c r="AP24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.14506346444611667</v>
       </c>
       <c r="AQ24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.15324704466472347</v>
       </c>
       <c r="AR24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.16126860148286204</v>
       </c>
       <c r="AS24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.1691240781597001</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AV24" s="8">
         <v>0.08</v>
@@ -4606,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="8">
         <f>+C17/C16</f>
@@ -4625,134 +4792,137 @@
         <v>-0.4001125492402926</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="8">
         <f>+H17/H16</f>
         <v>2.9361702127659574E-2</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:P25" si="43">+J17/J16</f>
+        <f t="shared" ref="J25:P25" si="51">+J17/J16</f>
         <v>0.1981191222570533</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.20224522013681812</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.22596118367648144</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.15528419462453577</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.1150390625</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.14765906362545017</v>
       </c>
       <c r="Q25" s="8">
         <v>0.15</v>
       </c>
+      <c r="R25" s="8">
+        <v>0.15</v>
+      </c>
       <c r="Y25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" ref="Z25:AH25" si="44">+Z17/Z16</f>
+        <f t="shared" ref="Z25:AH25" si="52">+Z17/Z16</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.36831222538123548</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.20930865541643984</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.10195911413969336</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.16988693287533993</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.13174121111724646</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.20343949044585988</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>-0.2651446468309569</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.19044562135558765</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" ref="AI25" si="45">+AI17/AI16</f>
+        <f t="shared" ref="AI25" si="53">+AI17/AI16</f>
         <v>0.1293452464051375</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" ref="AJ25:AS25" si="46">+AJ17/AJ16</f>
+        <f t="shared" ref="AJ25:AS25" si="54">+AJ17/AJ16</f>
         <v>0.2</v>
       </c>
       <c r="AK25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="AL25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="AM25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AO25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AP25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="AR25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="AS25" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV25" s="2">
         <f>+NPV(AV24,AI18:EP18)+Main!L6-Main!L7</f>
-        <v>2707392.6570431059</v>
+        <v>2700004.6570431059</v>
       </c>
     </row>
     <row r="26" spans="1:146" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4761,12 +4931,12 @@
       <c r="I26" s="9"/>
       <c r="K26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="AU26" s="22" t="s">
-        <v>84</v>
+      <c r="AU26" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="AV26" s="7">
         <f>+AV25/Main!L4</f>
-        <v>251.35945195832383</v>
+        <v>250.16257361652052</v>
       </c>
     </row>
     <row r="27" spans="1:146" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4774,147 +4944,147 @@
         <v>15</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:R27" si="47">+F5/B5-1</f>
+        <f t="shared" ref="F27:R27" si="55">+F5/B5-1</f>
         <v>2.97488503714185E-2</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.14699671515720314</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.12335491642824881</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.10845967302901816</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.125742519728405</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.13911825420230017</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.12527677884388888</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.10115862869559389</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.11038348371225104</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.10491230341078239</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="47"/>
-        <v>8.5037644875203267E-2</v>
+        <f t="shared" si="55"/>
+        <v>8.6202926461660834E-2</v>
       </c>
       <c r="Y27" s="10" t="e">
-        <f t="shared" ref="Y27:AS27" si="48">+Y5/X5-1</f>
+        <f t="shared" ref="Y27:AS27" si="56">+Y5/X5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.20247673843664304</v>
       </c>
       <c r="AA27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.27083528026465808</v>
       </c>
       <c r="AB27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.30796326119408479</v>
       </c>
       <c r="AC27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.3093396152159491</v>
       </c>
       <c r="AD27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.20454125820676983</v>
       </c>
       <c r="AE27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.37623430604373276</v>
       </c>
       <c r="AF27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.21687595839031881</v>
       </c>
       <c r="AG27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>9.406503303589675E-2</v>
       </c>
       <c r="AH27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.1182957412988368</v>
       </c>
       <c r="AI27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.1099089224666614</v>
       </c>
       <c r="AJ27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AM27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AN27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AP27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AU27" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AV27" s="8">
         <f>+AV26/Main!L3-1</f>
-        <v>0.46993831554575349</v>
+        <v>0.29887109873582829</v>
       </c>
     </row>
     <row r="28" spans="1:146" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4923,6 +5093,10 @@
         <f>+SUM(N14:Q14)/Q31</f>
         <v>4.6214501689689928E-2</v>
       </c>
+      <c r="R29" s="8">
+        <f>+SUM(O14:R14)/R31</f>
+        <v>5.023000052873685E-2</v>
+      </c>
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:146" x14ac:dyDescent="0.2">
@@ -4949,6 +5123,10 @@
         <f>+Q31-Q43</f>
         <v>48579</v>
       </c>
+      <c r="R30" s="2">
+        <f>+R31-R43</f>
+        <v>41191</v>
+      </c>
       <c r="AH30" s="2">
         <f>+AH31-AH43</f>
         <v>2876</v>
@@ -4958,43 +5136,43 @@
         <v>48579</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" ref="AJ30:AS30" si="49">+AI30+AJ18</f>
+        <f t="shared" ref="AJ30:AS30" si="57">+AI30+AJ18</f>
         <v>113724.024</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>192369.65943999996</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>286454.35505359998</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>398152.19696818397</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>529898.83068772359</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>684420.02968830673</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>864763.16258788959</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1074331.8329126951</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1316923.9892379951</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1596773.8290272693</v>
       </c>
     </row>
@@ -5022,6 +5200,10 @@
         <f>78779+22423</f>
         <v>101202</v>
       </c>
+      <c r="R31" s="2">
+        <f>66207+28358</f>
+        <v>94565</v>
+      </c>
       <c r="AH31" s="2">
         <f>53888+16138</f>
         <v>70026</v>
@@ -5050,6 +5232,9 @@
       <c r="Q32" s="2">
         <v>34214</v>
       </c>
+      <c r="R32" s="2">
+        <v>35864</v>
+      </c>
       <c r="AH32" s="2">
         <v>34405</v>
       </c>
@@ -5076,6 +5261,9 @@
       <c r="Q33" s="2">
         <v>55451</v>
       </c>
+      <c r="R33" s="2">
+        <v>54216</v>
+      </c>
       <c r="AH33" s="2">
         <v>42360</v>
       </c>
@@ -5102,6 +5290,9 @@
       <c r="Q34" s="2">
         <v>252665</v>
       </c>
+      <c r="R34" s="2">
+        <v>272781</v>
+      </c>
       <c r="AH34" s="2">
         <v>186715</v>
       </c>
@@ -5128,6 +5319,9 @@
       <c r="Q35" s="2">
         <v>76141</v>
       </c>
+      <c r="R35" s="2">
+        <v>78495</v>
+      </c>
       <c r="AH35" s="2">
         <v>66123</v>
       </c>
@@ -5154,6 +5348,9 @@
       <c r="Q36" s="2">
         <v>23074</v>
       </c>
+      <c r="R36" s="2">
+        <v>23089</v>
+      </c>
       <c r="AH36" s="2">
         <v>20288</v>
       </c>
@@ -5182,6 +5379,9 @@
       <c r="Q37" s="2">
         <v>82147</v>
       </c>
+      <c r="R37" s="2">
+        <v>84246</v>
+      </c>
       <c r="AH37" s="2">
         <v>42758</v>
       </c>
@@ -5213,6 +5413,10 @@
         <f>+SUM(Q31:Q37)</f>
         <v>624894</v>
       </c>
+      <c r="R38" s="5">
+        <f>+SUM(R31:R37)</f>
+        <v>643256</v>
+      </c>
       <c r="AH38" s="5">
         <f>+SUM(AH31:AH37)</f>
         <v>462675</v>
@@ -5243,6 +5447,9 @@
       <c r="Q39" s="2">
         <v>94363</v>
       </c>
+      <c r="R39" s="2">
+        <v>89241</v>
+      </c>
       <c r="AH39" s="2">
         <v>79600</v>
       </c>
@@ -5269,6 +5476,9 @@
       <c r="Q40" s="2">
         <v>66965</v>
       </c>
+      <c r="R40" s="2">
+        <v>66331</v>
+      </c>
       <c r="AH40" s="2">
         <v>62566</v>
       </c>
@@ -5295,6 +5505,9 @@
       <c r="Q41" s="2">
         <v>18103</v>
       </c>
+      <c r="R41" s="2">
+        <v>20599</v>
+      </c>
       <c r="AH41" s="2">
         <v>13227</v>
       </c>
@@ -5321,6 +5534,9 @@
       <c r="Q42" s="2">
         <v>78277</v>
       </c>
+      <c r="R42" s="2">
+        <v>79871</v>
+      </c>
       <c r="AH42" s="2">
         <v>72968</v>
       </c>
@@ -5347,6 +5563,9 @@
       <c r="Q43" s="2">
         <v>52623</v>
       </c>
+      <c r="R43" s="2">
+        <v>53374</v>
+      </c>
       <c r="AH43" s="2">
         <v>67150</v>
       </c>
@@ -5375,6 +5594,9 @@
       <c r="Q44" s="2">
         <v>28593</v>
       </c>
+      <c r="R44" s="2">
+        <v>27973</v>
+      </c>
       <c r="AH44" s="2">
         <v>21121</v>
       </c>
@@ -5406,6 +5628,10 @@
         <f>+SUM(Q39:Q44)</f>
         <v>338924</v>
       </c>
+      <c r="R45" s="5">
+        <f>+SUM(R39:R44)</f>
+        <v>337389</v>
+      </c>
       <c r="AH45" s="5">
         <f>+SUM(AH39:AH44)</f>
         <v>316632</v>
@@ -5436,6 +5662,9 @@
       <c r="Q46" s="2">
         <v>285970</v>
       </c>
+      <c r="R46" s="2">
+        <v>305867</v>
+      </c>
       <c r="AH46" s="2">
         <v>146043</v>
       </c>
@@ -5467,6 +5696,10 @@
         <f>+Q46+Q45</f>
         <v>624894</v>
       </c>
+      <c r="R47" s="2">
+        <f>+R46+R45</f>
+        <v>643256</v>
+      </c>
       <c r="AH47" s="2">
         <f>+AH46+AH45</f>
         <v>462675</v>
@@ -5493,33 +5726,37 @@
         <v>22663</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" ref="L49:Q49" si="50">+SUM(I18:L18)</f>
+        <f t="shared" ref="L49:R49" si="58">+SUM(I18:L18)</f>
         <v>25859</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>31874</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>41457</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>46598</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>53122</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>62365</v>
       </c>
+      <c r="R49" s="2">
+        <f t="shared" si="58"/>
+        <v>63630</v>
+      </c>
     </row>
     <row r="50" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>71</v>
+      <c r="A50" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="M50" s="8">
         <f>+M49/(M32+M33+M34+M35+M37)</f>
@@ -5541,10 +5778,14 @@
         <f>+Q49/(Q32+Q33+Q34+Q35+Q37)</f>
         <v>0.12457602403429362</v>
       </c>
+      <c r="R50" s="8">
+        <f>+R49/(R32+R33+R34+R35+R37)</f>
+        <v>0.12106118317662413</v>
+      </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M51" s="2">
         <f>+M13*(1-M25)</f>
@@ -5566,10 +5807,14 @@
         <f>+Q13*(1-Q25)</f>
         <v>18172.149999999998</v>
       </c>
+      <c r="R51" s="2">
+        <f>+R13*(1-R25)</f>
+        <v>15906.05</v>
+      </c>
     </row>
     <row r="52" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M52" s="8">
         <f>+M51/(M46-M30)</f>
@@ -5591,6 +5836,10 @@
         <f>+Q51/(Q46-Q30)</f>
         <v>7.6549447957167699E-2</v>
       </c>
+      <c r="R52" s="8">
+        <f>+R51/(R46-R30)</f>
+        <v>6.0096306427481143E-2</v>
+      </c>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
     </row>
@@ -5618,6 +5867,10 @@
         <f>+Q18</f>
         <v>19732</v>
       </c>
+      <c r="R54" s="2">
+        <f>+R18</f>
+        <v>14685</v>
+      </c>
       <c r="AI54" s="2">
         <f>+AI18</f>
         <v>62365</v>
@@ -5642,6 +5895,9 @@
       <c r="Q55" s="2">
         <v>20004</v>
       </c>
+      <c r="R55" s="2">
+        <v>17127</v>
+      </c>
       <c r="AI55" s="2">
         <f>+SUM(N55:Q55)</f>
         <v>59248</v>
@@ -5666,8 +5922,11 @@
       <c r="Q56" s="2">
         <v>15631</v>
       </c>
+      <c r="R56" s="2">
+        <v>14262</v>
+      </c>
       <c r="AI56" s="2">
-        <f t="shared" ref="AI56:AI65" si="51">+SUM(N56:Q56)</f>
+        <f t="shared" ref="AI56:AI65" si="59">+SUM(N56:Q56)</f>
         <v>52795</v>
       </c>
     </row>
@@ -5699,8 +5958,11 @@
       <c r="Q57" s="2">
         <v>4995</v>
       </c>
+      <c r="R57" s="2">
+        <v>3689</v>
+      </c>
       <c r="AI57" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>22011</v>
       </c>
     </row>
@@ -5723,8 +5985,11 @@
       <c r="Q58" s="2">
         <v>-486</v>
       </c>
+      <c r="R58" s="2">
+        <v>-2817</v>
+      </c>
       <c r="AI58" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2012</v>
       </c>
     </row>
@@ -5747,8 +6012,11 @@
       <c r="Q59" s="2">
         <v>-1608</v>
       </c>
+      <c r="R59" s="2">
+        <v>507</v>
+      </c>
       <c r="AI59" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-4648</v>
       </c>
     </row>
@@ -5771,8 +6039,11 @@
       <c r="Q60" s="2">
         <v>934</v>
       </c>
+      <c r="R60" s="2">
+        <v>-1222</v>
+      </c>
       <c r="AI60" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-1884</v>
       </c>
     </row>
@@ -5795,8 +6066,11 @@
       <c r="Q61" s="2">
         <v>-4023</v>
       </c>
+      <c r="R61" s="2">
+        <v>1247</v>
+      </c>
       <c r="AI61" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-3249</v>
       </c>
     </row>
@@ -5819,8 +6093,11 @@
       <c r="Q62" s="2">
         <v>-4190</v>
       </c>
+      <c r="R62" s="2">
+        <v>-3402</v>
+      </c>
       <c r="AI62" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-14483</v>
       </c>
     </row>
@@ -5843,8 +6120,11 @@
       <c r="Q63" s="2">
         <v>8726</v>
       </c>
+      <c r="R63" s="2">
+        <v>-9043</v>
+      </c>
       <c r="AI63" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2972</v>
       </c>
     </row>
@@ -5867,8 +6147,11 @@
       <c r="Q64" s="2">
         <v>4042</v>
       </c>
+      <c r="R64" s="2">
+        <v>-4061</v>
+      </c>
       <c r="AI64" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2904</v>
       </c>
     </row>
@@ -5891,8 +6174,11 @@
       <c r="Q65" s="2">
         <v>1611</v>
       </c>
+      <c r="R65" s="2">
+        <v>728</v>
+      </c>
       <c r="AI65" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>4007</v>
       </c>
       <c r="AU65" s="5"/>
@@ -5922,6 +6208,10 @@
         <f>+SUM(Q60:Q65)</f>
         <v>7100</v>
       </c>
+      <c r="R66" s="2">
+        <f>+SUM(R60:R65)</f>
+        <v>-15753</v>
+      </c>
       <c r="AI66" s="2">
         <f>+SUM(AI60:AI65)</f>
         <v>-15541</v>
@@ -5960,6 +6250,10 @@
         <f>+Q66+SUM(Q55:Q59)</f>
         <v>45636</v>
       </c>
+      <c r="R67" s="5">
+        <f>+R66+SUM(R55:R59)</f>
+        <v>17015</v>
+      </c>
       <c r="AH67" s="5">
         <f>+SUM(J67:M67)</f>
         <v>71654</v>
@@ -5971,182 +6265,334 @@
       <c r="AU67" s="2"/>
       <c r="AV67" s="2"/>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="5">
         <v>-14207</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="5">
         <v>-11455</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="5">
         <v>-12479</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="5">
         <v>-14588</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="5">
         <v>-14925</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="5">
         <v>-17620</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P69" s="5">
         <v>-22620</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="5">
         <v>-27834</v>
       </c>
-      <c r="AH69" s="18">
+      <c r="R69" s="5">
+        <v>-25019</v>
+      </c>
+      <c r="AH69" s="5">
         <f>+SUM(J69:M69)</f>
         <v>-52729</v>
       </c>
-      <c r="AI69" s="2">
+      <c r="AI69" s="5">
         <f>+SUM(N69:Q69)</f>
         <v>-82999</v>
       </c>
     </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N70" s="2">
+        <v>990</v>
+      </c>
+      <c r="R70" s="2">
+        <v>764</v>
+      </c>
+      <c r="AH70" s="18"/>
+    </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="2">
+        <v>-3354</v>
+      </c>
+      <c r="R71" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH71" s="18"/>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" s="2">
+        <f>1392-1965</f>
+        <v>-573</v>
+      </c>
+      <c r="R72" s="2">
+        <f>7737-13333</f>
+        <v>-5596</v>
+      </c>
+      <c r="AH72" s="18"/>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A73" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N73" s="2">
+        <f>+SUM(N69:N72)</f>
+        <v>-17862</v>
+      </c>
+      <c r="R73" s="2">
+        <f>+SUM(R69:R72)</f>
+        <v>-29803</v>
+      </c>
+      <c r="AH73" s="18"/>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AH74" s="18"/>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="2">
+        <f>338-404-330</f>
+        <v>-396</v>
+      </c>
+      <c r="R75" s="2">
+        <f>1815-2082+746</f>
+        <v>479</v>
+      </c>
+      <c r="AH75" s="18"/>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A76" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="2">
+        <v>-770</v>
+      </c>
+      <c r="R76" s="2">
+        <v>-410</v>
+      </c>
+      <c r="AH76" s="18"/>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N77" s="2">
+        <v>-90</v>
+      </c>
+      <c r="R77" s="2">
+        <v>-116</v>
+      </c>
+      <c r="AH77" s="18"/>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N78" s="2">
+        <f>+SUM(N75:N77)</f>
+        <v>-1256</v>
+      </c>
+      <c r="R78" s="2">
+        <f>+SUM(R75:R77)</f>
+        <v>-47</v>
+      </c>
+      <c r="AH78" s="18"/>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N79" s="2">
+        <v>-429</v>
+      </c>
+      <c r="R79" s="2">
+        <v>416</v>
+      </c>
+      <c r="AH79" s="18"/>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N80" s="2">
+        <f>+N67+N73+N78+N79</f>
+        <v>-558</v>
+      </c>
+      <c r="R80" s="2">
+        <f>+R67+R73+R78+R79</f>
+        <v>-12419</v>
+      </c>
+      <c r="AH80" s="18"/>
+    </row>
+    <row r="82" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" ref="J71:P71" si="52">+J67+J69</f>
+      <c r="J82" s="5">
+        <f t="shared" ref="J82:P82" si="60">+J67+J69</f>
         <v>-9419</v>
       </c>
-      <c r="K71" s="2">
-        <f t="shared" si="52"/>
+      <c r="K82" s="5">
+        <f t="shared" si="60"/>
         <v>5021</v>
       </c>
-      <c r="L71" s="2">
-        <f t="shared" si="52"/>
+      <c r="L82" s="5">
+        <f t="shared" si="60"/>
         <v>8738</v>
       </c>
-      <c r="M71" s="2">
-        <f t="shared" si="52"/>
+      <c r="M82" s="5">
+        <f t="shared" si="60"/>
         <v>14585</v>
       </c>
-      <c r="N71" s="2">
-        <f t="shared" si="52"/>
+      <c r="N82" s="5">
+        <f>+N67+N69</f>
         <v>4064</v>
       </c>
-      <c r="O71" s="2">
-        <f t="shared" si="52"/>
+      <c r="O82" s="5">
+        <f t="shared" si="60"/>
         <v>7661</v>
       </c>
-      <c r="P71" s="2">
-        <f t="shared" si="52"/>
+      <c r="P82" s="5">
+        <f t="shared" si="60"/>
         <v>3351</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q82" s="5">
         <f>+Q67+Q69</f>
         <v>17802</v>
       </c>
-      <c r="AH71" s="2">
+      <c r="R82" s="5">
+        <f>+R67+R69</f>
+        <v>-8004</v>
+      </c>
+      <c r="AH82" s="5">
         <f>+AH67+AH69</f>
         <v>18925</v>
       </c>
-      <c r="AI71" s="2">
+      <c r="AI82" s="5">
         <f>+AI67+AI69</f>
         <v>32878</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" ref="J83:P83" si="61">+J82-J57</f>
+        <v>-14167</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="61"/>
+        <v>-2106</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="61"/>
+        <v>2909</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="61"/>
+        <v>8979</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="61"/>
+        <v>-897</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="61"/>
+        <v>939</v>
+      </c>
+      <c r="P83" s="2">
+        <f t="shared" si="61"/>
+        <v>-1982</v>
+      </c>
+      <c r="Q83" s="2">
+        <f>+Q82-Q57</f>
+        <v>12807</v>
+      </c>
+      <c r="R83" s="2">
+        <f>+R82-R57</f>
+        <v>-11693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" ref="M85:R86" si="62">+SUM(J82:M82)</f>
+        <v>18925</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="62"/>
+        <v>32408</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="62"/>
+        <v>35048</v>
+      </c>
+      <c r="P85" s="2">
+        <f t="shared" si="62"/>
+        <v>29661</v>
+      </c>
+      <c r="Q85" s="2">
+        <f>+SUM(N82:Q82)</f>
+        <v>32878</v>
+      </c>
+      <c r="R85" s="2">
+        <f>+SUM(O82:R82)</f>
+        <v>20810</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" ref="J72:P72" si="53">+J71-J57</f>
-        <v>-14167</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="53"/>
-        <v>-2106</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="53"/>
-        <v>2909</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="53"/>
-        <v>8979</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="53"/>
-        <v>-897</v>
-      </c>
-      <c r="O72" s="2">
-        <f t="shared" si="53"/>
-        <v>939</v>
-      </c>
-      <c r="P72" s="2">
-        <f t="shared" si="53"/>
-        <v>-1982</v>
-      </c>
-      <c r="Q72" s="2">
-        <f>+Q71-Q57</f>
-        <v>12807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" ref="M74:Q75" si="54">+SUM(J71:M71)</f>
-        <v>18925</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="54"/>
-        <v>32408</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="54"/>
-        <v>35048</v>
-      </c>
-      <c r="P74" s="2">
-        <f t="shared" si="54"/>
-        <v>29661</v>
-      </c>
-      <c r="Q74" s="2">
-        <f>+SUM(N71:Q71)</f>
-        <v>32878</v>
-      </c>
-    </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="54"/>
+      <c r="M86" s="2">
+        <f t="shared" si="62"/>
         <v>-4385</v>
       </c>
-      <c r="N75" s="2">
-        <f t="shared" si="54"/>
+      <c r="N86" s="2">
+        <f t="shared" si="62"/>
         <v>8885</v>
       </c>
-      <c r="O75" s="2">
-        <f t="shared" si="54"/>
+      <c r="O86" s="2">
+        <f t="shared" si="62"/>
         <v>11930</v>
       </c>
-      <c r="P75" s="2">
-        <f t="shared" si="54"/>
+      <c r="P86" s="2">
+        <f t="shared" si="62"/>
         <v>7039</v>
       </c>
-      <c r="Q75" s="2">
-        <f t="shared" si="54"/>
+      <c r="Q86" s="2">
+        <f t="shared" si="62"/>
         <v>10867</v>
       </c>
-    </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI77" s="2">
-        <f>+Main!L8/Model!AI71</f>
-        <v>54.542916235780766</v>
+      <c r="R86" s="2">
+        <f t="shared" si="62"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A88" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI88" s="2">
+        <f>+Main!L8/Model!AI82</f>
+        <v>61.972772066427403</v>
       </c>
     </row>
   </sheetData>
